--- a/simulation_matrix.xlsx
+++ b/simulation_matrix.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OneDrive - University of Virginia\01-HMC Project\Postprocess_HMC2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\InjuryVisualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA60283C-4945-4A1E-A844-BB0BE0C2DE59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24390" windowHeight="7560"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="2019" sheetId="2" r:id="rId1"/>
+    <sheet name="2020" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="139">
   <si>
     <t>M50-OS</t>
   </si>
@@ -207,13 +209,247 @@
   </si>
   <si>
     <t>005</t>
+  </si>
+  <si>
+    <t>Occ. Model</t>
+  </si>
+  <si>
+    <t># Occupants</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V13_UBT_H3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V19_UBT_H3</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V19_UBT_H3_T45</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V16_UBT_H3</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V13_BT_H3</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V19_BT_H3_P45</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V22_BT_H3_P40_T40</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V13_UBT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V19_UBT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V19_UBT_GHB_T45</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V16_UBT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V13_BT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V19_BT_GHB_P45</t>
+  </si>
+  <si>
+    <t>CN7_FFlat_V22_BT_GHB_P40_T40</t>
+  </si>
+  <si>
+    <t>CN7_Angle_UBT_H3</t>
+  </si>
+  <si>
+    <t>CN7_Angle_UBT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_Angle_BT_H3</t>
+  </si>
+  <si>
+    <t>CN7_Angle_BT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_Offset_BT_H3</t>
+  </si>
+  <si>
+    <t>CN7_Offset_BT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_Grail_BT_H3</t>
+  </si>
+  <si>
+    <t>CN7_Grail_BT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_OCline_V1_BT_H3</t>
+  </si>
+  <si>
+    <t>CN7_OCline_V1_BT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_OCline_V2_BT_H3</t>
+  </si>
+  <si>
+    <t>CN7_OCline_V2_BT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_MStrip_BT_H3</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>CN7_MStrip_BT_GHB</t>
+  </si>
+  <si>
+    <t>CN7_RTree_BT_H3</t>
+  </si>
+  <si>
+    <t>CN7_RTree_BT_GHB</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V13_UBT_H3</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V19_UBT_H3</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V19_UBT_H3_T45</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V22_UBT_H3_T40</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V13_BT_H3</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V19_BT_H3_P45</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V22_BT_H3_P40_T40</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V13_UBT_GHB</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V19_UBT_GHB</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V19_UBT_GHB_T45</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V22_UBT_GHB_T40</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V13_BT_GHB</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V19_BT_GHB_P45</t>
+  </si>
+  <si>
+    <t>NE_FFlat_V22_BT_GHB_P40_T40</t>
+  </si>
+  <si>
+    <t>NE_Angle_UBT_H3</t>
+  </si>
+  <si>
+    <t>NE_Angle_UBT_GHB</t>
+  </si>
+  <si>
+    <t>NE_Angle_BT_H3</t>
+  </si>
+  <si>
+    <t>NE_Angle_BT_GHB</t>
+  </si>
+  <si>
+    <t>NE_Offset_UBT_H3</t>
+  </si>
+  <si>
+    <t>NE_Offset_UBT_GHB</t>
+  </si>
+  <si>
+    <t>NE_Offset_BT_H3</t>
+  </si>
+  <si>
+    <t>NE_Offset_BT_GHB</t>
+  </si>
+  <si>
+    <t>NE_Grail_UBT_H3</t>
+  </si>
+  <si>
+    <t>NE_Grail_UBT_GHB</t>
+  </si>
+  <si>
+    <t>NE_Grail_BT_H3</t>
+  </si>
+  <si>
+    <t>NE_Grail_BT_GHB</t>
+  </si>
+  <si>
+    <t>NE_OCline_V1_UBT_H3</t>
+  </si>
+  <si>
+    <t>NE_OCline_V1_UBT_GHB</t>
+  </si>
+  <si>
+    <t>NE_OCline_V1_BT_H3</t>
+  </si>
+  <si>
+    <t>NE_OCline_V1_BT_GHB</t>
+  </si>
+  <si>
+    <t>NE_OCline_V2_UBT_H3</t>
+  </si>
+  <si>
+    <t>NE_OCline_V2_UBT_GHB</t>
+  </si>
+  <si>
+    <t>NE_OCline_V2_BT_H3</t>
+  </si>
+  <si>
+    <t>NE_OCline_V2_BT_GHB</t>
+  </si>
+  <si>
+    <t>NE_MStrip_UBT_H3</t>
+  </si>
+  <si>
+    <t>NE_MStrip_UBT_GHB</t>
+  </si>
+  <si>
+    <t>NE_MStrip_BT_H3</t>
+  </si>
+  <si>
+    <t>NE_MStrip_BT_GHB</t>
+  </si>
+  <si>
+    <t>NE_RTree_UBT_H3</t>
+  </si>
+  <si>
+    <t>NE_RTree_UBT_GHB</t>
+  </si>
+  <si>
+    <t>NE_RTree_BT_H3</t>
+  </si>
+  <si>
+    <t>NE_RTree_BT_GHB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +461,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -259,6 +501,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,14 +797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,4 +2030,1115 @@
     <ignoredError sqref="C10 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB27DE-F19B-48B7-907E-7905375F40B9}">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="5">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="6">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="5">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/simulation_matrix.xlsx
+++ b/simulation_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\InjuryVisualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA60283C-4945-4A1E-A844-BB0BE0C2DE59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D587FA8-D4BB-4508-A28A-F7269F7BA12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="143">
   <si>
     <t>M50-OS</t>
   </si>
@@ -443,13 +443,25 @@
   </si>
   <si>
     <t>NE_RTree_BT_GHB</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +479,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -516,6 +536,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2034,13 +2057,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB27DE-F19B-48B7-907E-7905375F40B9}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,7 +2077,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -2074,7 +2097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2091,10 +2114,16 @@
         <v>66</v>
       </c>
       <c r="F2" s="5">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44137</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2111,10 +2140,16 @@
         <v>66</v>
       </c>
       <c r="F3" s="5">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44134</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2127,8 +2162,14 @@
       <c r="D4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2145,10 +2186,10 @@
         <v>66</v>
       </c>
       <c r="F5" s="5">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2161,8 +2202,14 @@
       <c r="D6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2182,7 +2229,7 @@
         <v>44126</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2196,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2213,10 +2260,10 @@
         <v>66</v>
       </c>
       <c r="F9" s="5">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2232,11 +2279,11 @@
       <c r="E10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="6">
-        <v>44124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2250,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2263,14 +2310,14 @@
       <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="5">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2283,8 +2330,14 @@
       <c r="D13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2304,7 +2357,7 @@
         <v>44124</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2318,7 +2371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2415,6 +2468,12 @@
       <c r="D22" s="4">
         <v>2</v>
       </c>
+      <c r="E22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44130</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -2429,6 +2488,12 @@
       <c r="D23" s="4">
         <v>2</v>
       </c>
+      <c r="E23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="5">
+        <v>44132</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -2443,6 +2508,12 @@
       <c r="D24" s="4">
         <v>2</v>
       </c>
+      <c r="E24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="5">
+        <v>44131</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -2500,10 +2571,10 @@
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F28" s="5">
-        <v>44127</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2519,7 +2590,12 @@
       <c r="D29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="E29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="5">
+        <v>44132</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">

--- a/simulation_matrix.xlsx
+++ b/simulation_matrix.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\InjuryVisualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D587FA8-D4BB-4508-A28A-F7269F7BA12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E797D006-32DB-4241-90B6-C9400AA5216A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="2" r:id="rId1"/>
-    <sheet name="2020" sheetId="3" r:id="rId2"/>
+    <sheet name="2020" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="145">
   <si>
     <t>M50-OS</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Completed w/ Error</t>
   </si>
 </sst>
 </file>
@@ -2056,14 +2062,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB27DE-F19B-48B7-907E-7905375F40B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11636695-EC93-4881-965B-D6DBAA52EF19}">
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2080,9 @@
     <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2143,10 +2151,10 @@
         <v>44134</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2162,11 +2170,17 @@
       <c r="D4" s="4">
         <v>2</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44149</v>
+      </c>
       <c r="H4" s="9" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2188,6 +2202,12 @@
       <c r="F5" s="5">
         <v>44134</v>
       </c>
+      <c r="H5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2242,6 +2262,12 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44146</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -2296,6 +2322,12 @@
       <c r="D11" s="4">
         <v>2</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44149</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -2370,6 +2402,12 @@
       <c r="D15" s="4">
         <v>2</v>
       </c>
+      <c r="E15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="5">
+        <v>44146</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -2384,6 +2422,12 @@
       <c r="D16" s="4">
         <v>2</v>
       </c>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="5">
+        <v>44149</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2398,6 +2442,12 @@
       <c r="D17" s="4">
         <v>2</v>
       </c>
+      <c r="E17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="5">
+        <v>44149</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2412,6 +2462,12 @@
       <c r="D18" s="4">
         <v>2</v>
       </c>
+      <c r="E18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44144</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -2426,6 +2482,12 @@
       <c r="D19" s="4">
         <v>2</v>
       </c>
+      <c r="E19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="5">
+        <v>44146</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -2440,6 +2502,12 @@
       <c r="D20" s="4">
         <v>2</v>
       </c>
+      <c r="E20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44151</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -2454,6 +2522,12 @@
       <c r="D21" s="4">
         <v>2</v>
       </c>
+      <c r="E21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="5">
+        <v>44151</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -2489,10 +2563,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F23" s="5">
-        <v>44132</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,10 +2583,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="F24" s="5">
-        <v>44131</v>
+        <v>44143</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2528,6 +2602,12 @@
       <c r="D25" s="4">
         <v>2</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="5">
+        <v>44146</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -2542,6 +2622,12 @@
       <c r="D26" s="4">
         <v>2</v>
       </c>
+      <c r="E26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="5">
+        <v>44155</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -2556,6 +2642,12 @@
       <c r="D27" s="4">
         <v>2</v>
       </c>
+      <c r="E27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="5">
+        <v>44156</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -2591,10 +2683,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F29" s="5">
-        <v>44132</v>
+        <v>44142</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2610,6 +2702,12 @@
       <c r="D30" s="4">
         <v>2</v>
       </c>
+      <c r="E30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="5">
+        <v>44151</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -2623,6 +2721,12 @@
       </c>
       <c r="D31" s="4">
         <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="5">
+        <v>44151</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
